--- a/tableClient/question1.xlsx
+++ b/tableClient/question1.xlsx
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="C427" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
